--- a/natmiOut/OldD2/LR-pairs_lrc2p/Reln-Itga3.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Reln-Itga3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,9 +76,15 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>Neutro</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -88,16 +94,10 @@
     <t>Itga3</t>
   </si>
   <si>
-    <t>ECs</t>
-  </si>
-  <si>
     <t>M1</t>
   </si>
   <si>
     <t>M2</t>
-  </si>
-  <si>
-    <t>Neutro</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G2">
-        <v>0.218300015739857</v>
+        <v>0.012889</v>
       </c>
       <c r="H2">
-        <v>0.218300015739857</v>
+        <v>0.025778</v>
       </c>
       <c r="I2">
-        <v>0.03384991108808978</v>
+        <v>0.001600145269867208</v>
       </c>
       <c r="J2">
-        <v>0.03384991108808978</v>
+        <v>0.001566596073214938</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>13.8669766660373</v>
+        <v>13.939895</v>
       </c>
       <c r="N2">
-        <v>13.8669766660373</v>
+        <v>27.87979</v>
       </c>
       <c r="O2">
-        <v>0.4895789429920396</v>
+        <v>0.4802889349037177</v>
       </c>
       <c r="P2">
-        <v>0.4895789429920396</v>
+        <v>0.4091514124048364</v>
       </c>
       <c r="Q2">
-        <v>3.027161224460172</v>
+        <v>0.179671306655</v>
       </c>
       <c r="R2">
-        <v>3.027161224460172</v>
+        <v>0.71868522662</v>
       </c>
       <c r="S2">
-        <v>0.01657220369088152</v>
+        <v>0.0007685320673557432</v>
       </c>
       <c r="T2">
-        <v>0.01657220369088152</v>
+        <v>0.0006409749960237625</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G3">
-        <v>0.218300015739857</v>
+        <v>0.012889</v>
       </c>
       <c r="H3">
-        <v>0.218300015739857</v>
+        <v>0.025778</v>
       </c>
       <c r="I3">
-        <v>0.03384991108808978</v>
+        <v>0.001600145269867208</v>
       </c>
       <c r="J3">
-        <v>0.03384991108808978</v>
+        <v>0.001566596073214938</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.32848939577798</v>
+        <v>0.5122363333333334</v>
       </c>
       <c r="N3">
-        <v>0.32848939577798</v>
+        <v>1.536709</v>
       </c>
       <c r="O3">
-        <v>0.01159744442081292</v>
+        <v>0.01764872999083942</v>
       </c>
       <c r="P3">
-        <v>0.01159744442081292</v>
+        <v>0.02255205859890708</v>
       </c>
       <c r="Q3">
-        <v>0.07170924026870915</v>
+        <v>0.006602214100333334</v>
       </c>
       <c r="R3">
-        <v>0.07170924026870915</v>
+        <v>0.039613284602</v>
       </c>
       <c r="S3">
-        <v>0.0003925724624935802</v>
+        <v>2.824053181400522E-05</v>
       </c>
       <c r="T3">
-        <v>0.0003925724624935802</v>
+        <v>3.532996644396103E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G4">
-        <v>0.218300015739857</v>
+        <v>0.012889</v>
       </c>
       <c r="H4">
-        <v>0.218300015739857</v>
+        <v>0.025778</v>
       </c>
       <c r="I4">
-        <v>0.03384991108808978</v>
+        <v>0.001600145269867208</v>
       </c>
       <c r="J4">
-        <v>0.03384991108808978</v>
+        <v>0.001566596073214938</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.135263888803066</v>
+        <v>0.1702606666666667</v>
       </c>
       <c r="N4">
-        <v>0.135263888803066</v>
+        <v>0.5107820000000001</v>
       </c>
       <c r="O4">
-        <v>0.00477554360262163</v>
+        <v>0.005866207331499287</v>
       </c>
       <c r="P4">
-        <v>0.00477554360262163</v>
+        <v>0.007496009716391951</v>
       </c>
       <c r="Q4">
-        <v>0.02952810905474357</v>
+        <v>0.002194489732666667</v>
       </c>
       <c r="R4">
-        <v>0.02952810905474357</v>
+        <v>0.013166938396</v>
       </c>
       <c r="S4">
-        <v>0.0001616517263460381</v>
+        <v>9.386783913558922E-06</v>
       </c>
       <c r="T4">
-        <v>0.0001616517263460381</v>
+        <v>1.174321938648066E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G5">
-        <v>0.218300015739857</v>
+        <v>0.012889</v>
       </c>
       <c r="H5">
-        <v>0.218300015739857</v>
+        <v>0.025778</v>
       </c>
       <c r="I5">
-        <v>0.03384991108808978</v>
+        <v>0.001600145269867208</v>
       </c>
       <c r="J5">
-        <v>0.03384991108808978</v>
+        <v>0.001566596073214938</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.169672699500415</v>
+        <v>0.194159</v>
       </c>
       <c r="N5">
-        <v>0.169672699500415</v>
+        <v>0.5824769999999999</v>
       </c>
       <c r="O5">
-        <v>0.005990359894342935</v>
+        <v>0.006689607010093757</v>
       </c>
       <c r="P5">
-        <v>0.005990359894342935</v>
+        <v>0.008548173685789306</v>
       </c>
       <c r="Q5">
-        <v>0.03703955297156462</v>
+        <v>0.002502515350999999</v>
       </c>
       <c r="R5">
-        <v>0.03703955297156462</v>
+        <v>0.015015092106</v>
       </c>
       <c r="S5">
-        <v>0.0002027731498091673</v>
+        <v>1.070434301447204E-05</v>
       </c>
       <c r="T5">
-        <v>0.0002027731498091673</v>
+        <v>1.339153532931679E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>27</v>
-      </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G6">
-        <v>0.218300015739857</v>
+        <v>0.012889</v>
       </c>
       <c r="H6">
-        <v>0.218300015739857</v>
+        <v>0.025778</v>
       </c>
       <c r="I6">
-        <v>0.03384991108808978</v>
+        <v>0.001600145269867208</v>
       </c>
       <c r="J6">
-        <v>0.03384991108808978</v>
+        <v>0.001566596073214938</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>8.94378187791326</v>
+        <v>9.215910000000001</v>
       </c>
       <c r="N6">
-        <v>8.94378187791326</v>
+        <v>27.64773</v>
       </c>
       <c r="O6">
-        <v>0.3157636580484281</v>
+        <v>0.317527470477254</v>
       </c>
       <c r="P6">
-        <v>0.3157636580484281</v>
+        <v>0.4057458029378115</v>
       </c>
       <c r="Q6">
-        <v>1.952427724722312</v>
+        <v>0.11878386399</v>
       </c>
       <c r="R6">
-        <v>1.952427724722312</v>
+        <v>0.71270318394</v>
       </c>
       <c r="S6">
-        <v>0.01068857174978928</v>
+        <v>0.0005080900799370777</v>
       </c>
       <c r="T6">
-        <v>0.01068857174978928</v>
+        <v>0.0006356397816058177</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G7">
-        <v>0.218300015739857</v>
+        <v>0.012889</v>
       </c>
       <c r="H7">
-        <v>0.218300015739857</v>
+        <v>0.025778</v>
       </c>
       <c r="I7">
-        <v>0.03384991108808978</v>
+        <v>0.001600145269867208</v>
       </c>
       <c r="J7">
-        <v>0.03384991108808978</v>
+        <v>0.001566596073214938</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.88010691573371</v>
+        <v>4.991516</v>
       </c>
       <c r="N7">
-        <v>4.88010691573371</v>
+        <v>9.983032</v>
       </c>
       <c r="O7">
-        <v>0.1722940510417547</v>
+        <v>0.1719790502865958</v>
       </c>
       <c r="P7">
-        <v>0.1722940510417547</v>
+        <v>0.1465065426562639</v>
       </c>
       <c r="Q7">
-        <v>1.065327416516854</v>
+        <v>0.06433564972399999</v>
       </c>
       <c r="R7">
-        <v>1.065327416516854</v>
+        <v>0.257342598896</v>
       </c>
       <c r="S7">
-        <v>0.005832138308770201</v>
+        <v>0.000275191463832351</v>
       </c>
       <c r="T7">
-        <v>0.005832138308770201</v>
+        <v>0.0002295165744255998</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>6.23075727045983</v>
+        <v>0.265837</v>
       </c>
       <c r="H8">
-        <v>6.23075727045983</v>
+        <v>0.797511</v>
       </c>
       <c r="I8">
-        <v>0.9661500889119102</v>
+        <v>0.0330031668946923</v>
       </c>
       <c r="J8">
-        <v>0.9661500889119102</v>
+        <v>0.04846681670206063</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>13.8669766660373</v>
+        <v>13.939895</v>
       </c>
       <c r="N8">
-        <v>13.8669766660373</v>
+        <v>27.87979</v>
       </c>
       <c r="O8">
-        <v>0.4895789429920396</v>
+        <v>0.4802889349037177</v>
       </c>
       <c r="P8">
-        <v>0.4895789429920396</v>
+        <v>0.4091514124048364</v>
       </c>
       <c r="Q8">
-        <v>86.40176568120872</v>
+        <v>3.705739867115</v>
       </c>
       <c r="R8">
-        <v>86.40176568120872</v>
+        <v>22.23443920269</v>
       </c>
       <c r="S8">
-        <v>0.4730067393011581</v>
+        <v>0.0158510558763014</v>
       </c>
       <c r="T8">
-        <v>0.4730067393011581</v>
+        <v>0.01983026650841442</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>6.23075727045983</v>
+        <v>0.265837</v>
       </c>
       <c r="H9">
-        <v>6.23075727045983</v>
+        <v>0.797511</v>
       </c>
       <c r="I9">
-        <v>0.9661500889119102</v>
+        <v>0.0330031668946923</v>
       </c>
       <c r="J9">
-        <v>0.9661500889119102</v>
+        <v>0.04846681670206063</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.32848939577798</v>
+        <v>0.5122363333333334</v>
       </c>
       <c r="N9">
-        <v>0.32848939577798</v>
+        <v>1.536709</v>
       </c>
       <c r="O9">
-        <v>0.01159744442081292</v>
+        <v>0.01764872999083942</v>
       </c>
       <c r="P9">
-        <v>0.01159744442081292</v>
+        <v>0.02255205859890708</v>
       </c>
       <c r="Q9">
-        <v>2.046737691012605</v>
+        <v>0.1361713701443333</v>
       </c>
       <c r="R9">
-        <v>2.046737691012605</v>
+        <v>1.225542331299</v>
       </c>
       <c r="S9">
-        <v>0.01120487195831934</v>
+        <v>0.0005824639813670346</v>
       </c>
       <c r="T9">
-        <v>0.01120487195831934</v>
+        <v>0.00109302649036736</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>6.23075727045983</v>
+        <v>0.265837</v>
       </c>
       <c r="H10">
-        <v>6.23075727045983</v>
+        <v>0.797511</v>
       </c>
       <c r="I10">
-        <v>0.9661500889119102</v>
+        <v>0.0330031668946923</v>
       </c>
       <c r="J10">
-        <v>0.9661500889119102</v>
+        <v>0.04846681670206063</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.135263888803066</v>
+        <v>0.1702606666666667</v>
       </c>
       <c r="N10">
-        <v>0.135263888803066</v>
+        <v>0.5107820000000001</v>
       </c>
       <c r="O10">
-        <v>0.00477554360262163</v>
+        <v>0.005866207331499287</v>
       </c>
       <c r="P10">
-        <v>0.00477554360262163</v>
+        <v>0.007496009716391951</v>
       </c>
       <c r="Q10">
-        <v>0.8427964585903736</v>
+        <v>0.04526158484466667</v>
       </c>
       <c r="R10">
-        <v>0.8427964585903736</v>
+        <v>0.4073542636020001</v>
       </c>
       <c r="S10">
-        <v>0.004613891876275592</v>
+        <v>0.0001936034196003385</v>
       </c>
       <c r="T10">
-        <v>0.004613891876275592</v>
+        <v>0.0003633077289212342</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>6.23075727045983</v>
+        <v>0.265837</v>
       </c>
       <c r="H11">
-        <v>6.23075727045983</v>
+        <v>0.797511</v>
       </c>
       <c r="I11">
-        <v>0.9661500889119102</v>
+        <v>0.0330031668946923</v>
       </c>
       <c r="J11">
-        <v>0.9661500889119102</v>
+        <v>0.04846681670206063</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.169672699500415</v>
+        <v>0.194159</v>
       </c>
       <c r="N11">
-        <v>0.169672699500415</v>
+        <v>0.5824769999999999</v>
       </c>
       <c r="O11">
-        <v>0.005990359894342935</v>
+        <v>0.006689607010093757</v>
       </c>
       <c r="P11">
-        <v>0.005990359894342935</v>
+        <v>0.008548173685789306</v>
       </c>
       <c r="Q11">
-        <v>1.057189406010757</v>
+        <v>0.05161464608299999</v>
       </c>
       <c r="R11">
-        <v>1.057189406010757</v>
+        <v>0.4645318147469999</v>
       </c>
       <c r="S11">
-        <v>0.005787586744533768</v>
+        <v>0.0002207782166140278</v>
       </c>
       <c r="T11">
-        <v>0.005787586744533768</v>
+        <v>0.0004143027671665283</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
         <v>22</v>
       </c>
-      <c r="C12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" t="s">
-        <v>27</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>6.23075727045983</v>
+        <v>0.265837</v>
       </c>
       <c r="H12">
-        <v>6.23075727045983</v>
+        <v>0.797511</v>
       </c>
       <c r="I12">
-        <v>0.9661500889119102</v>
+        <v>0.0330031668946923</v>
       </c>
       <c r="J12">
-        <v>0.9661500889119102</v>
+        <v>0.04846681670206063</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>8.94378187791326</v>
+        <v>9.215910000000001</v>
       </c>
       <c r="N12">
-        <v>8.94378187791326</v>
+        <v>27.64773</v>
       </c>
       <c r="O12">
-        <v>0.3157636580484281</v>
+        <v>0.317527470477254</v>
       </c>
       <c r="P12">
-        <v>0.3157636580484281</v>
+        <v>0.4057458029378115</v>
       </c>
       <c r="Q12">
-        <v>55.72653396121492</v>
+        <v>2.44992986667</v>
       </c>
       <c r="R12">
-        <v>55.72653396121492</v>
+        <v>22.04936880003</v>
       </c>
       <c r="S12">
-        <v>0.3050750862986388</v>
+        <v>0.0104794121018103</v>
       </c>
       <c r="T12">
-        <v>0.3050750862986388</v>
+        <v>0.01966520745861733</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,805 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.265837</v>
+      </c>
+      <c r="H13">
+        <v>0.797511</v>
+      </c>
+      <c r="I13">
+        <v>0.0330031668946923</v>
+      </c>
+      <c r="J13">
+        <v>0.04846681670206063</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>4.991516</v>
+      </c>
+      <c r="N13">
+        <v>9.983032</v>
+      </c>
+      <c r="O13">
+        <v>0.1719790502865958</v>
+      </c>
+      <c r="P13">
+        <v>0.1465065426562639</v>
+      </c>
+      <c r="Q13">
+        <v>1.326929638892</v>
+      </c>
+      <c r="R13">
+        <v>7.961577833351999</v>
+      </c>
+      <c r="S13">
+        <v>0.005675853298999201</v>
+      </c>
+      <c r="T13">
+        <v>0.007100705748573768</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
         <v>22</v>
       </c>
-      <c r="C13" t="s">
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.07915966666666667</v>
+      </c>
+      <c r="H14">
+        <v>0.237479</v>
+      </c>
+      <c r="I14">
+        <v>0.009827524725031546</v>
+      </c>
+      <c r="J14">
+        <v>0.01443221618709793</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>13.939895</v>
+      </c>
+      <c r="N14">
+        <v>27.87979</v>
+      </c>
+      <c r="O14">
+        <v>0.4802889349037177</v>
+      </c>
+      <c r="P14">
+        <v>0.4091514124048364</v>
+      </c>
+      <c r="Q14">
+        <v>1.103477441568333</v>
+      </c>
+      <c r="R14">
+        <v>6.62086464941</v>
+      </c>
+      <c r="S14">
+        <v>0.004720051382925352</v>
+      </c>
+      <c r="T14">
+        <v>0.00590496163708306</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.07915966666666667</v>
+      </c>
+      <c r="H15">
+        <v>0.237479</v>
+      </c>
+      <c r="I15">
+        <v>0.009827524725031546</v>
+      </c>
+      <c r="J15">
+        <v>0.01443221618709793</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.5122363333333334</v>
+      </c>
+      <c r="N15">
+        <v>1.536709</v>
+      </c>
+      <c r="O15">
+        <v>0.01764872999083942</v>
+      </c>
+      <c r="P15">
+        <v>0.02255205859890708</v>
+      </c>
+      <c r="Q15">
+        <v>0.04054845740122223</v>
+      </c>
+      <c r="R15">
+        <v>0.364936116611</v>
+      </c>
+      <c r="S15">
+        <v>0.0001734433303503801</v>
+      </c>
+      <c r="T15">
+        <v>0.0003254761851635278</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.07915966666666667</v>
+      </c>
+      <c r="H16">
+        <v>0.237479</v>
+      </c>
+      <c r="I16">
+        <v>0.009827524725031546</v>
+      </c>
+      <c r="J16">
+        <v>0.01443221618709793</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.1702606666666667</v>
+      </c>
+      <c r="N16">
+        <v>0.5107820000000001</v>
+      </c>
+      <c r="O16">
+        <v>0.005866207331499287</v>
+      </c>
+      <c r="P16">
+        <v>0.007496009716391951</v>
+      </c>
+      <c r="Q16">
+        <v>0.01347777761977778</v>
+      </c>
+      <c r="R16">
+        <v>0.121299998578</v>
+      </c>
+      <c r="S16">
+        <v>5.765029759247057E-05</v>
+      </c>
+      <c r="T16">
+        <v>0.0001081840327675553</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.07915966666666667</v>
+      </c>
+      <c r="H17">
+        <v>0.237479</v>
+      </c>
+      <c r="I17">
+        <v>0.009827524725031546</v>
+      </c>
+      <c r="J17">
+        <v>0.01443221618709793</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.194159</v>
+      </c>
+      <c r="N17">
+        <v>0.5824769999999999</v>
+      </c>
+      <c r="O17">
+        <v>0.006689607010093757</v>
+      </c>
+      <c r="P17">
+        <v>0.008548173685789306</v>
+      </c>
+      <c r="Q17">
+        <v>0.01536956172033333</v>
+      </c>
+      <c r="R17">
+        <v>0.138326055483</v>
+      </c>
+      <c r="S17">
+        <v>6.574227829244075E-05</v>
+      </c>
+      <c r="T17">
+        <v>0.000123369090638173</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G18">
+        <v>0.07915966666666667</v>
+      </c>
+      <c r="H18">
+        <v>0.237479</v>
+      </c>
+      <c r="I18">
+        <v>0.009827524725031546</v>
+      </c>
+      <c r="J18">
+        <v>0.01443221618709793</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>9.215910000000001</v>
+      </c>
+      <c r="N18">
+        <v>27.64773</v>
+      </c>
+      <c r="O18">
+        <v>0.317527470477254</v>
+      </c>
+      <c r="P18">
+        <v>0.4057458029378115</v>
+      </c>
+      <c r="Q18">
+        <v>0.7295283636300001</v>
+      </c>
+      <c r="R18">
+        <v>6.565755272670001</v>
+      </c>
+      <c r="S18">
+        <v>0.003120509066991939</v>
+      </c>
+      <c r="T18">
+        <v>0.00585581114500613</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
         <v>23</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>0.07915966666666667</v>
+      </c>
+      <c r="H19">
+        <v>0.237479</v>
+      </c>
+      <c r="I19">
+        <v>0.009827524725031546</v>
+      </c>
+      <c r="J19">
+        <v>0.01443221618709793</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>4.991516</v>
+      </c>
+      <c r="N19">
+        <v>9.983032</v>
+      </c>
+      <c r="O19">
+        <v>0.1719790502865958</v>
+      </c>
+      <c r="P19">
+        <v>0.1465065426562639</v>
+      </c>
+      <c r="Q19">
+        <v>0.3951267427213334</v>
+      </c>
+      <c r="R19">
+        <v>2.370760456328</v>
+      </c>
+      <c r="S19">
+        <v>0.001690128368878964</v>
+      </c>
+      <c r="T19">
+        <v>0.002114414096439485</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>7.697008</v>
+      </c>
+      <c r="H20">
+        <v>15.394016</v>
+      </c>
+      <c r="I20">
+        <v>0.955569163110409</v>
+      </c>
+      <c r="J20">
+        <v>0.9355343710376265</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>13.939895</v>
+      </c>
+      <c r="N20">
+        <v>27.87979</v>
+      </c>
+      <c r="O20">
+        <v>0.4802889349037177</v>
+      </c>
+      <c r="P20">
+        <v>0.4091514124048364</v>
+      </c>
+      <c r="Q20">
+        <v>107.29548333416</v>
+      </c>
+      <c r="R20">
+        <v>429.18193333664</v>
+      </c>
+      <c r="S20">
+        <v>0.4589492955771352</v>
+      </c>
+      <c r="T20">
+        <v>0.3827752092633152</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
         <v>21</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>6.23075727045983</v>
-      </c>
-      <c r="H13">
-        <v>6.23075727045983</v>
-      </c>
-      <c r="I13">
-        <v>0.9661500889119102</v>
-      </c>
-      <c r="J13">
-        <v>0.9661500889119102</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>4.88010691573371</v>
-      </c>
-      <c r="N13">
-        <v>4.88010691573371</v>
-      </c>
-      <c r="O13">
-        <v>0.1722940510417547</v>
-      </c>
-      <c r="P13">
-        <v>0.1722940510417547</v>
-      </c>
-      <c r="Q13">
-        <v>30.40676164582911</v>
-      </c>
-      <c r="R13">
-        <v>30.40676164582911</v>
-      </c>
-      <c r="S13">
-        <v>0.1664619127329846</v>
-      </c>
-      <c r="T13">
-        <v>0.1664619127329846</v>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>7.697008</v>
+      </c>
+      <c r="H21">
+        <v>15.394016</v>
+      </c>
+      <c r="I21">
+        <v>0.955569163110409</v>
+      </c>
+      <c r="J21">
+        <v>0.9355343710376265</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.5122363333333334</v>
+      </c>
+      <c r="N21">
+        <v>1.536709</v>
+      </c>
+      <c r="O21">
+        <v>0.01764872999083942</v>
+      </c>
+      <c r="P21">
+        <v>0.02255205859890708</v>
+      </c>
+      <c r="Q21">
+        <v>3.942687155557334</v>
+      </c>
+      <c r="R21">
+        <v>23.656122933344</v>
+      </c>
+      <c r="S21">
+        <v>0.016864582147308</v>
+      </c>
+      <c r="T21">
+        <v>0.02109822595693223</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>7.697008</v>
+      </c>
+      <c r="H22">
+        <v>15.394016</v>
+      </c>
+      <c r="I22">
+        <v>0.955569163110409</v>
+      </c>
+      <c r="J22">
+        <v>0.9355343710376265</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>0.1702606666666667</v>
+      </c>
+      <c r="N22">
+        <v>0.5107820000000001</v>
+      </c>
+      <c r="O22">
+        <v>0.005866207331499287</v>
+      </c>
+      <c r="P22">
+        <v>0.007496009716391951</v>
+      </c>
+      <c r="Q22">
+        <v>1.310497713418667</v>
+      </c>
+      <c r="R22">
+        <v>7.862986280512001</v>
+      </c>
+      <c r="S22">
+        <v>0.00560556683039292</v>
+      </c>
+      <c r="T22">
+        <v>0.007012774735316681</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>7.697008</v>
+      </c>
+      <c r="H23">
+        <v>15.394016</v>
+      </c>
+      <c r="I23">
+        <v>0.955569163110409</v>
+      </c>
+      <c r="J23">
+        <v>0.9355343710376265</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>0.194159</v>
+      </c>
+      <c r="N23">
+        <v>0.5824769999999999</v>
+      </c>
+      <c r="O23">
+        <v>0.006689607010093757</v>
+      </c>
+      <c r="P23">
+        <v>0.008548173685789306</v>
+      </c>
+      <c r="Q23">
+        <v>1.494443376272</v>
+      </c>
+      <c r="R23">
+        <v>8.966660257631998</v>
+      </c>
+      <c r="S23">
+        <v>0.006392382172172816</v>
+      </c>
+      <c r="T23">
+        <v>0.007997110292655289</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>7.697008</v>
+      </c>
+      <c r="H24">
+        <v>15.394016</v>
+      </c>
+      <c r="I24">
+        <v>0.955569163110409</v>
+      </c>
+      <c r="J24">
+        <v>0.9355343710376265</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>9.215910000000001</v>
+      </c>
+      <c r="N24">
+        <v>27.64773</v>
+      </c>
+      <c r="O24">
+        <v>0.317527470477254</v>
+      </c>
+      <c r="P24">
+        <v>0.4057458029378115</v>
+      </c>
+      <c r="Q24">
+        <v>70.93493299728001</v>
+      </c>
+      <c r="R24">
+        <v>425.60959798368</v>
+      </c>
+      <c r="S24">
+        <v>0.3034194592285148</v>
+      </c>
+      <c r="T24">
+        <v>0.3795891445525822</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>7.697008</v>
+      </c>
+      <c r="H25">
+        <v>15.394016</v>
+      </c>
+      <c r="I25">
+        <v>0.955569163110409</v>
+      </c>
+      <c r="J25">
+        <v>0.9355343710376265</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>4.991516</v>
+      </c>
+      <c r="N25">
+        <v>9.983032</v>
+      </c>
+      <c r="O25">
+        <v>0.1719790502865958</v>
+      </c>
+      <c r="P25">
+        <v>0.1465065426562639</v>
+      </c>
+      <c r="Q25">
+        <v>38.419738584128</v>
+      </c>
+      <c r="R25">
+        <v>153.678954336512</v>
+      </c>
+      <c r="S25">
+        <v>0.1643378771548853</v>
+      </c>
+      <c r="T25">
+        <v>0.137061906236825</v>
       </c>
     </row>
   </sheetData>
